--- a/fivethirtyeight elo spreads week 4.xlsx
+++ b/fivethirtyeight elo spreads week 4.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Home Team</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Visiting Team</t>
   </si>
   <si>
-    <t>ELO Win %</t>
-  </si>
-  <si>
     <t>ELO Point Spread</t>
   </si>
   <si>
@@ -129,13 +126,22 @@
   </si>
   <si>
     <t>ELO Point Spread Team</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>Home Team ELO Win %</t>
+  </si>
+  <si>
+    <t>Visiting Team ELO Win %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +163,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,10 +213,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,396 +507,405 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>1393</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B6" s="5">
+        <v>-5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1533</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1528</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
-        <v>1393</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C8" s="2">
         <v>0.5</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1460</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1411</v>
+      </c>
+      <c r="F8" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1533</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1478</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1528</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="1">
-        <v>1448</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="H8" s="1">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1411</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="E9" s="1">
+        <v>1432</v>
+      </c>
+      <c r="F9" s="2">
         <v>0.5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="1">
-        <v>1473</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="H9" s="1">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1432</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="B10" s="5">
+        <v>-9.5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1557</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="1">
-        <v>1501</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="H10" s="1">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-2.5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-9.5</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="E11" s="1">
+        <v>1322</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1538</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1">
         <v>1557</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1381</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-14.5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1602</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1467</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>-4.5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1600</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>-1.5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1529</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5">
         <v>-2.5</v>
       </c>
-      <c r="D11" s="1">
-        <v>1322</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1444</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1538</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1557</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-14.5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1602</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1299</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1">
-        <v>-2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1467</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1481</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-4.5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1600</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1556</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="C17" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1">
-        <v>-1.5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1529</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E17" s="1">
+        <v>1492</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="1">
-        <v>1553</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1">
-        <v>-2.5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1492</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>1622</v>
       </c>
-      <c r="H17" s="2">
-        <v>0.59</v>
-      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:H4"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/fivethirtyeight elo spreads week 4.xlsx
+++ b/fivethirtyeight elo spreads week 4.xlsx
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
